--- a/testdata/robot_CDC_NIDRS_report_simple.xlsx
+++ b/testdata/robot_CDC_NIDRS_report_simple.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SourceCodes\test_RobotFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CEBD06-7583-4EA0-AE8A-C83C70A0A691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6524CA25-D9E2-4F20-8109-626711BCAA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -307,11 +307,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -643,7 +643,7 @@
   <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,13 +761,13 @@
       <c r="O2" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
       <c r="U2" s="5"/>
       <c r="V2" s="5" t="s">
         <v>65</v>
@@ -783,7 +783,7 @@
       <c r="C3" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="3" t="s">

--- a/testdata/robot_CDC_NIDRS_report_simple.xlsx
+++ b/testdata/robot_CDC_NIDRS_report_simple.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SourceCodes\test_RobotFramework\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\test_RobotFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6524CA25-D9E2-4F20-8109-626711BCAA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72ECABA7-9092-40A2-B92D-5CADB535D18E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="552" yWindow="1128" windowWidth="20148" windowHeight="10224" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -238,27 +238,28 @@
     <t>4828</t>
   </si>
   <si>
+    <t>醫護及其他醫事人員</t>
+  </si>
+  <si>
+    <t>醫療院所工作者(非醫事人員)</t>
+  </si>
+  <si>
+    <t>照服員或個人健康照顧工作人員</t>
+  </si>
+  <si>
     <t>頭暈,全身倦怠,肺炎</t>
-  </si>
-  <si>
-    <t>醫護及其他醫事人員</t>
-  </si>
-  <si>
-    <t>醫療院所工作者(非醫事人員)</t>
-  </si>
-  <si>
-    <t>照服員或個人健康照顧工作人員</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -267,6 +268,13 @@
       <color theme="1"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -599,12 +607,12 @@
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -618,7 +626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -633,6 +641,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -643,35 +652,35 @@
   <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" customWidth="1"/>
-    <col min="17" max="17" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.875" customWidth="1"/>
+    <col min="2" max="2" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.625" customWidth="1"/>
+    <col min="17" max="17" width="9.375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>52</v>
       </c>
@@ -737,7 +746,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>54</v>
       </c>
@@ -773,7 +782,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>50</v>
       </c>
@@ -841,7 +850,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -897,13 +906,13 @@
         <v>-1</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V4" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="30" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -965,13 +974,13 @@
         <v>-1</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V5" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="30" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -1012,7 +1021,7 @@
         <v>1</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O6" s="3" t="b">
         <v>0</v>
@@ -1031,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V6" s="3" t="b">
         <v>0</v>
@@ -1041,6 +1050,7 @@
   <mergeCells count="1">
     <mergeCell ref="P2:T2"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/testdata/robot_CDC_NIDRS_report_simple.xlsx
+++ b/testdata/robot_CDC_NIDRS_report_simple.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\test_RobotFramework\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docker0814\test_RobotFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72ECABA7-9092-40A2-B92D-5CADB535D18E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30CB32B-8F01-4E66-8A68-01A55B3A6CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="552" yWindow="1128" windowWidth="20148" windowHeight="10224" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="230" windowWidth="9960" windowHeight="9510" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="report" sheetId="2" r:id="rId2"/>
+    <sheet name="清單" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="341">
   <si>
     <t>User</t>
   </si>
@@ -249,13 +250,913 @@
   <si>
     <t>頭暈,全身倦怠,肺炎</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>序號</t>
+  </si>
+  <si>
+    <t>必填
+需和update編號對齊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Num</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>預期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>數值設定須為文字/ True 或 False</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXPECTED</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>縣市</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>居住縣市</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄉鎮市區</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>國家</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>接觸動物</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位類型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>肺外依據</t>
+  </si>
+  <si>
+    <t>非本國籍居民身份</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>機構類別</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>婚姻狀況</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X光診斷結果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>檢體種類</t>
+  </si>
+  <si>
+    <t>病理報告結果</t>
+  </si>
+  <si>
+    <t>塗片結果</t>
+  </si>
+  <si>
+    <t>PCR結果</t>
+  </si>
+  <si>
+    <t>培養結果</t>
+  </si>
+  <si>
+    <t>菌種鑑定結果</t>
+  </si>
+  <si>
+    <t>新北市</t>
+  </si>
+  <si>
+    <t>板橋區</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>自強里</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AFG 阿富汗</t>
+  </si>
+  <si>
+    <t>羊</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾病管制所</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>結核菌腦膜炎(013)</t>
+  </si>
+  <si>
+    <t>外籍勞工</t>
+  </si>
+  <si>
+    <t>榮譽國民之家</t>
+  </si>
+  <si>
+    <t>未婚</t>
+  </si>
+  <si>
+    <t>正常</t>
+  </si>
+  <si>
+    <t>血液</t>
+  </si>
+  <si>
+    <t>疑似</t>
+  </si>
+  <si>
+    <t>陽性1+</t>
+  </si>
+  <si>
+    <t>陽性</t>
+  </si>
+  <si>
+    <t>MTBC陰性</t>
+  </si>
+  <si>
+    <t>士林區</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>百齡里</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALB 阿爾巴尼亞</t>
+  </si>
+  <si>
+    <t>鼠</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>衛生局</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>淋巴結核(014)</t>
+  </si>
+  <si>
+    <t>外籍人士</t>
+  </si>
+  <si>
+    <t>護理之家</t>
+  </si>
+  <si>
+    <t>已婚</t>
+  </si>
+  <si>
+    <t>異常，但無空洞</t>
+  </si>
+  <si>
+    <t>痰</t>
+  </si>
+  <si>
+    <t>已驗未出</t>
+  </si>
+  <si>
+    <t>陽性2+</t>
+  </si>
+  <si>
+    <t>陰性</t>
+  </si>
+  <si>
+    <t>無法判定</t>
+  </si>
+  <si>
+    <t>中壢區</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>仁愛里</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATA 南極洲</t>
+  </si>
+  <si>
+    <t>馬</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>衛生所</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>骨及關節結核(015)</t>
+  </si>
+  <si>
+    <t>外籍配偶</t>
+  </si>
+  <si>
+    <t>身心障礙福利</t>
+  </si>
+  <si>
+    <t>喪偶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>異常，且有空洞</t>
+  </si>
+  <si>
+    <t>腦脊髓液</t>
+  </si>
+  <si>
+    <t>排除</t>
+  </si>
+  <si>
+    <t>陽性3+</t>
+  </si>
+  <si>
+    <t>MTBC</t>
+  </si>
+  <si>
+    <t>保母或兒童照顧工作人員</t>
+  </si>
+  <si>
+    <t>台中市</t>
+  </si>
+  <si>
+    <t>烏日區</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>光明里</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DZA 阿爾及利亞</t>
+  </si>
+  <si>
+    <t>雞</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>醫院</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>泌尿及生殖系統結核(016)</t>
+  </si>
+  <si>
+    <t>大陸人士</t>
+  </si>
+  <si>
+    <t>托嬰中心</t>
+  </si>
+  <si>
+    <t>離婚</t>
+  </si>
+  <si>
+    <t>異常，無關結核病</t>
+  </si>
+  <si>
+    <t>胸水</t>
+  </si>
+  <si>
+    <t>確定</t>
+  </si>
+  <si>
+    <t>陽性4+</t>
+  </si>
+  <si>
+    <t>未驗</t>
+  </si>
+  <si>
+    <t>汙染</t>
+  </si>
+  <si>
+    <t>NTM</t>
+  </si>
+  <si>
+    <t>實驗室檢驗人員</t>
+  </si>
+  <si>
+    <t>台南市</t>
+  </si>
+  <si>
+    <t>六甲區</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>王爺里</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASM 美屬薩摩亞(東薩摩亞)</t>
+  </si>
+  <si>
+    <t>豬</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>診所</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮膚及眼結核(017)</t>
+  </si>
+  <si>
+    <t>大陸配偶</t>
+  </si>
+  <si>
+    <t>康復之家</t>
+  </si>
+  <si>
+    <t>未知</t>
+  </si>
+  <si>
+    <t>氣管洗出液</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>獸醫師</t>
+  </si>
+  <si>
+    <t>高雄市</t>
+  </si>
+  <si>
+    <t>美濃區</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>東門里</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AND 安道爾(安道拉)</t>
+  </si>
+  <si>
+    <t>猿猴</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>消化道結核(014)</t>
+  </si>
+  <si>
+    <t>少年福利</t>
+  </si>
+  <si>
+    <t>分居</t>
+  </si>
+  <si>
+    <t>陽性培養菌株</t>
+  </si>
+  <si>
+    <t>農業人員</t>
+  </si>
+  <si>
+    <t>宜蘭縣</t>
+  </si>
+  <si>
+    <t>羅東鎮</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>樹林里</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGO 安哥拉</t>
+  </si>
+  <si>
+    <t>犬</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他器官結核(017)</t>
+  </si>
+  <si>
+    <t>矯正機關</t>
+  </si>
+  <si>
+    <t>病理切片</t>
+  </si>
+  <si>
+    <t>Scanty</t>
+  </si>
+  <si>
+    <t>畜牧業人員</t>
+  </si>
+  <si>
+    <t>新竹縣</t>
+  </si>
+  <si>
+    <t>竹北市</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹿場里</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATG 安地卡及巴布達 / 安提瓜和巴布達</t>
+  </si>
+  <si>
+    <t>牛</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>粟粒狀結核(018)</t>
+  </si>
+  <si>
+    <t>育幼院</t>
+  </si>
+  <si>
+    <t>消化去污染後痰</t>
+  </si>
+  <si>
+    <t>未檢</t>
+  </si>
+  <si>
+    <t>林業、漁業人員</t>
+  </si>
+  <si>
+    <t>苗栗縣</t>
+  </si>
+  <si>
+    <t>苑裡鎮</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>西平里</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AZE 亞塞拜然 / 阿塞拜疆</t>
+  </si>
+  <si>
+    <t>鹿</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>胸肋膜結核(000)</t>
+  </si>
+  <si>
+    <t>收容或暫置中心</t>
+  </si>
+  <si>
+    <t>機師及機組員</t>
+  </si>
+  <si>
+    <t>彰化縣</t>
+  </si>
+  <si>
+    <t>二林鎮</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>中西里</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARG 阿根廷</t>
+  </si>
+  <si>
+    <t>貓</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>咽喉結核(000)</t>
+  </si>
+  <si>
+    <t>地勤及機場其他工作人員</t>
+  </si>
+  <si>
+    <t>南投縣</t>
+  </si>
+  <si>
+    <t>魚池鄉</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>大林村</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUS 澳大利亞(澳洲)</t>
+  </si>
+  <si>
+    <t>鴨</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>膀胱癌灌注治療(泌尿系統結核)</t>
+  </si>
+  <si>
+    <t>船舶旅運服務人員</t>
+  </si>
+  <si>
+    <t>雲林縣</t>
+  </si>
+  <si>
+    <t>林內鄉</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>林北村</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUT 奧地利</t>
+  </si>
+  <si>
+    <t>鵝</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>疑似BCG不良反應(接種部位局部病灶)</t>
+  </si>
+  <si>
+    <t>陸上旅運服務人員</t>
+  </si>
+  <si>
+    <t>嘉義縣</t>
+  </si>
+  <si>
+    <t>梅山鄉</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>太平村</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BHS 巴哈馬</t>
+  </si>
+  <si>
+    <t>鳥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>疑似BCG不良反應(接種部位同側腋下淋巴結腫大)</t>
+  </si>
+  <si>
+    <t>廚師</t>
+  </si>
+  <si>
+    <t>屏東縣</t>
+  </si>
+  <si>
+    <t>竹田鄉</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>二崙村</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BHR 巴林</t>
+  </si>
+  <si>
+    <t>鴿子</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>食品製造及加工人員</t>
+  </si>
+  <si>
+    <t>蘭嶼鄉</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>紅頭村</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGD 孟加拉</t>
+  </si>
+  <si>
+    <t>果子狸</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐飲服務人員</t>
+  </si>
+  <si>
+    <t>花蓮縣</t>
+  </si>
+  <si>
+    <t>富里鄉</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>明里村</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARM 亞美尼亞 / 阿美尼亞</t>
+  </si>
+  <si>
+    <t>水產動物</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>教師及教務專業人員</t>
+  </si>
+  <si>
+    <t>澎湖縣</t>
+  </si>
+  <si>
+    <t>馬公市</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>東文里</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BRB 巴貝多 / 巴巴多斯</t>
+  </si>
+  <si>
+    <t>兔</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>學生</t>
+  </si>
+  <si>
+    <t>基隆市</t>
+  </si>
+  <si>
+    <t>安樂區</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>三民里</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BEL 比利時</t>
+  </si>
+  <si>
+    <t>軍人/軍校生</t>
+  </si>
+  <si>
+    <t>新竹市</t>
+  </si>
+  <si>
+    <t>香山區</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>海山里</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BMU 百慕達(薩默斯)</t>
+  </si>
+  <si>
+    <t>人口密集機構受照顧人員</t>
+  </si>
+  <si>
+    <t>嘉義市</t>
+  </si>
+  <si>
+    <t>西　區</t>
+  </si>
+  <si>
+    <t>培元里</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BTN 不丹</t>
+  </si>
+  <si>
+    <t>矯正機關戒護人員或收容人</t>
+  </si>
+  <si>
+    <t>金門縣</t>
+  </si>
+  <si>
+    <t>金城鎮</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>北門里</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOL 玻利維亞</t>
+  </si>
+  <si>
+    <t>防疫旅宿相關工作人員</t>
+  </si>
+  <si>
+    <t>連江縣</t>
+  </si>
+  <si>
+    <t>東引鄉</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>樂華村</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIH 波士尼亞與赫塞哥維納(波赫) / 波斯尼亞和黑塞哥維那(波黑)</t>
+  </si>
+  <si>
+    <t>集中檢疫所相關工作人員</t>
+  </si>
+  <si>
+    <t>BWA 波札那 / 博茨瓦納</t>
+  </si>
+  <si>
+    <t>防疫車隊相關工作人員</t>
+  </si>
+  <si>
+    <t>BVT 布威島 / 鮑威特島</t>
+  </si>
+  <si>
+    <t>各行業主管及經理人員、民意代表</t>
+  </si>
+  <si>
+    <t>BRA 巴西</t>
+  </si>
+  <si>
+    <t>科學及工程專業人員</t>
+  </si>
+  <si>
+    <t>BLZ 貝里斯 / 伯利茲</t>
+  </si>
+  <si>
+    <t>商業及行政專業人員</t>
+  </si>
+  <si>
+    <t>IOT 英屬印度洋領地</t>
+  </si>
+  <si>
+    <t>資訊及通訊專業人員</t>
+  </si>
+  <si>
+    <t>SLB 索羅門群島 / 所羅門群島</t>
+  </si>
+  <si>
+    <t>法律、社會及文化專業人員</t>
+  </si>
+  <si>
+    <t>VGB 英屬維京群島 / 英屬處女群島</t>
+  </si>
+  <si>
+    <t>辦公室事務支援人員</t>
+  </si>
+  <si>
+    <t>BRN 汶萊(文萊)</t>
+  </si>
+  <si>
+    <t>服務及銷售工作人員</t>
+  </si>
+  <si>
+    <t>BGR 保加利亞</t>
+  </si>
+  <si>
+    <t>技藝工作、機械設備操作及組裝人員</t>
+  </si>
+  <si>
+    <t>MMR 緬甸</t>
+  </si>
+  <si>
+    <t>家管</t>
+  </si>
+  <si>
+    <t>OTH 其他</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>無業</t>
+  </si>
+  <si>
+    <t>不詳</t>
+  </si>
+  <si>
+    <t>國內/外旅遊史</t>
+  </si>
+  <si>
+    <t>國內旅遊史縣市</t>
+  </si>
+  <si>
+    <t>國內旅遊史起始日</t>
+  </si>
+  <si>
+    <t>國內旅遊史結束日</t>
+  </si>
+  <si>
+    <t>國外旅遊史國家</t>
+  </si>
+  <si>
+    <t>國外旅遊史起始日</t>
+  </si>
+  <si>
+    <t>國外旅遊史結束日</t>
+  </si>
+  <si>
+    <t>國外居住史國家</t>
+  </si>
+  <si>
+    <t xml:space="preserve">離境居住國日期 </t>
+  </si>
+  <si>
+    <t>入境我國日期</t>
+  </si>
+  <si>
+    <t>前者為TRUE需填寫
+輸入1~3
+1 國內旅遊史
+2 國外旅遊史
+3 國外居住史</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>旅遊史: 1
+需填寫</t>
+  </si>
+  <si>
+    <t>以現在日期+-N日/
+旅遊史: 1
+需填寫</t>
+  </si>
+  <si>
+    <t>旅遊史: 2
+需填寫
+英文代號+(空格)+中文名稱</t>
+  </si>
+  <si>
+    <t>以現在日期+-N日/
+旅遊史: 2
+需填寫</t>
+  </si>
+  <si>
+    <t>旅遊史: 3
+需填寫
+英文代號+(空格)+中文名稱</t>
+  </si>
+  <si>
+    <t>以現在日期+-N日/
+旅遊史: 3
+需填寫</t>
+  </si>
+  <si>
+    <t>MAIN_TRAVAL</t>
+  </si>
+  <si>
+    <t>IN_COUNTRY_CITY</t>
+  </si>
+  <si>
+    <t>IN_COUNTRY_START</t>
+  </si>
+  <si>
+    <t>IN_COUNTRY_END</t>
+  </si>
+  <si>
+    <t>OUT_COUNTRY</t>
+  </si>
+  <si>
+    <t>OUT_COUNTRY_START</t>
+  </si>
+  <si>
+    <t>OUT_COUNTRY_END</t>
+  </si>
+  <si>
+    <t>OUT_COUNTRY_LIVE</t>
+  </si>
+  <si>
+    <t>DEPARTURE_DATE</t>
+  </si>
+  <si>
+    <t>ENTRY_DATE</t>
+  </si>
+  <si>
+    <t>死亡原因</t>
+  </si>
+  <si>
+    <t>DEATH_REASON</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,16 +1177,51 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -293,33 +1229,69 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -607,12 +1579,12 @@
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -626,7 +1598,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -649,409 +1621,1527 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A71B8D-93C4-4E3E-ABF8-78CB141697D7}">
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:AI6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.875" customWidth="1"/>
-    <col min="2" max="2" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.625" customWidth="1"/>
-    <col min="17" max="17" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.8984375" customWidth="1"/>
+    <col min="4" max="4" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.8984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="32.09765625" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.59765625" customWidth="1"/>
+    <col min="20" max="20" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.8984375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="34.09765625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="26.3984375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="28.796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="26.3984375" customWidth="1"/>
+    <col min="28" max="28" width="28.796875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="26.296875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="26.3984375" customWidth="1"/>
+    <col min="31" max="31" width="28.796875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="26.296875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18.09765625" customWidth="1"/>
+    <col min="34" max="34" width="28.796875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="26.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35">
       <c r="A1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="P1" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="S1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="T1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="U1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="V1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="W1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="X1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="Y1" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="Z1" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" s="2" customFormat="1" ht="72.5">
+      <c r="A2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="O2" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="R2" s="15"/>
+      <c r="S2" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5" t="s">
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="Z2" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" ht="29">
       <c r="A3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="D3" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="E3" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="F3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="H3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="I3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="J3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="K3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="L3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="M3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="N3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="O3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="P3" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="Q3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="R3" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="S3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="T3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="U3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="V3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="W3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="X3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="Y3" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="Z3" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35">
       <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="9">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="D4" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="E4" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="G4" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="H4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="I4" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="3">
+      <c r="J4" s="10">
         <v>12345</v>
       </c>
-      <c r="I4" s="3">
+      <c r="K4" s="10">
         <v>54321</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="M4" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="L4" s="3" t="b">
+      <c r="N4" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="M4" s="3" t="b">
+      <c r="O4" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="N4" s="5"/>
-      <c r="O4" s="3" t="b">
+      <c r="P4" s="9"/>
+      <c r="Q4" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3">
+      <c r="R4" s="15"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10">
         <v>-2</v>
       </c>
-      <c r="S4" s="3">
+      <c r="V4" s="10">
         <v>-1</v>
       </c>
-      <c r="T4" s="3">
+      <c r="W4" s="10">
         <v>-1</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="X4" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="V4" s="3" t="b">
+      <c r="Y4" s="3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" ht="30" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+    </row>
+    <row r="5" spans="1:35" ht="29">
+      <c r="A5" s="10">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="9">
         <v>1</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="D5" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="E5" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="F5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="G5" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="H5" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="I5" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H5" s="3">
+      <c r="J5" s="10">
         <v>12345</v>
       </c>
-      <c r="I5" s="3">
+      <c r="K5" s="10">
         <v>54321</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="M5" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="L5" s="3" t="b">
+      <c r="N5" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="M5" s="3" t="b">
+      <c r="O5" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="P5" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="O5" s="3" t="b">
+      <c r="Q5" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="P5" s="3">
+      <c r="S5" s="10">
         <v>-2</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="T5" s="10">
         <v>-3</v>
       </c>
-      <c r="R5" s="3">
+      <c r="U5" s="10">
         <v>-2</v>
       </c>
-      <c r="S5" s="3">
+      <c r="V5" s="10">
         <v>-1</v>
       </c>
-      <c r="T5" s="3">
+      <c r="W5" s="10">
         <v>-1</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="X5" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="V5" s="3" t="b">
+      <c r="Y5" s="3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" ht="30" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+    </row>
+    <row r="6" spans="1:35" ht="29">
+      <c r="A6" s="10">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="9">
+        <v>3</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="E6" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="F6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="G6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="H6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="I6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="3">
+      <c r="J6" s="10">
         <v>12345</v>
       </c>
-      <c r="I6" s="3">
+      <c r="K6" s="10">
         <v>54321</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="M6" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="L6" s="3" t="b">
+      <c r="N6" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="M6" s="3" t="b">
+      <c r="O6" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="P6" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="O6" s="3" t="b">
+      <c r="Q6" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3">
+      <c r="S6" s="10"/>
+      <c r="T6" s="10">
         <v>-5</v>
       </c>
-      <c r="R6" s="3">
+      <c r="U6" s="10">
         <v>-4</v>
       </c>
-      <c r="S6" s="3">
+      <c r="V6" s="10">
         <v>-2</v>
       </c>
-      <c r="T6" s="3">
+      <c r="W6" s="10">
         <v>0</v>
       </c>
-      <c r="U6" s="3" t="s">
+      <c r="X6" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="V6" s="3" t="b">
+      <c r="Y6" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="S2:W2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B6" xr:uid="{B25316DA-7513-424F-AB73-5D5A1463C93F}">
+      <formula1>"True,False"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z4:Z6" xr:uid="{0592544F-E481-4D64-BCEB-E946C8D6EF12}">
+      <formula1>"1,2,3"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y4:Y6 Q4:Q6" xr:uid="{177637FB-5483-4E1F-954D-CED4CDC2F4A0}">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C6" xr:uid="{8C00585E-AC91-4990-8383-69245AC27802}">
+      <formula1>"1,2,3,4,5"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3882078D-654D-4E3B-AC9A-9676BB36420E}">
+          <x14:formula1>
+            <xm:f>清單!$B$2:$B$23</xm:f>
+          </x14:formula1>
+          <xm:sqref>AA4 L4:L6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A18C1B7D-2AC3-45E4-906E-2505735FA097}">
+          <x14:formula1>
+            <xm:f>清單!$E$2:$E$34</xm:f>
+          </x14:formula1>
+          <xm:sqref>AD4:AD6 AG4:AG6</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B42E08-3874-4EAF-BB78-A7F169EE7AB4}">
+  <dimension ref="A1:R36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="38.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="67.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="52.296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="15.5">
+      <c r="A1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="M1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O1" t="s">
+        <v>94</v>
+      </c>
+      <c r="P1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K2" t="s">
+        <v>107</v>
+      </c>
+      <c r="L2" t="s">
+        <v>108</v>
+      </c>
+      <c r="M2" t="s">
+        <v>109</v>
+      </c>
+      <c r="N2" t="s">
+        <v>110</v>
+      </c>
+      <c r="O2" t="s">
+        <v>111</v>
+      </c>
+      <c r="P2" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>112</v>
+      </c>
+      <c r="R2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="H3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K3" t="s">
+        <v>122</v>
+      </c>
+      <c r="L3" t="s">
+        <v>123</v>
+      </c>
+      <c r="M3" t="s">
+        <v>124</v>
+      </c>
+      <c r="N3" t="s">
+        <v>125</v>
+      </c>
+      <c r="O3" t="s">
+        <v>126</v>
+      </c>
+      <c r="P3" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>127</v>
+      </c>
+      <c r="R3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="H4" t="s">
+        <v>134</v>
+      </c>
+      <c r="I4" t="s">
+        <v>135</v>
+      </c>
+      <c r="J4" t="s">
+        <v>136</v>
+      </c>
+      <c r="K4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M4" t="s">
+        <v>139</v>
+      </c>
+      <c r="N4" t="s">
+        <v>140</v>
+      </c>
+      <c r="O4" t="s">
+        <v>141</v>
+      </c>
+      <c r="P4" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>125</v>
+      </c>
+      <c r="R4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="H5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I5" t="s">
+        <v>151</v>
+      </c>
+      <c r="J5" t="s">
+        <v>152</v>
+      </c>
+      <c r="K5" t="s">
+        <v>153</v>
+      </c>
+      <c r="L5" t="s">
+        <v>154</v>
+      </c>
+      <c r="M5" t="s">
+        <v>155</v>
+      </c>
+      <c r="N5" t="s">
+        <v>156</v>
+      </c>
+      <c r="O5" t="s">
+        <v>157</v>
+      </c>
+      <c r="P5" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>159</v>
+      </c>
+      <c r="R5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="H6" t="s">
+        <v>168</v>
+      </c>
+      <c r="I6" t="s">
+        <v>169</v>
+      </c>
+      <c r="J6" t="s">
+        <v>170</v>
+      </c>
+      <c r="K6" t="s">
+        <v>171</v>
+      </c>
+      <c r="M6" t="s">
+        <v>172</v>
+      </c>
+      <c r="O6" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>158</v>
+      </c>
+      <c r="R6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="G7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H7" t="s">
+        <v>180</v>
+      </c>
+      <c r="I7" t="s">
+        <v>173</v>
+      </c>
+      <c r="J7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K7" t="s">
+        <v>182</v>
+      </c>
+      <c r="M7" t="s">
+        <v>183</v>
+      </c>
+      <c r="O7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="H8" t="s">
+        <v>190</v>
+      </c>
+      <c r="I8" t="s">
+        <v>171</v>
+      </c>
+      <c r="J8" t="s">
+        <v>191</v>
+      </c>
+      <c r="M8" t="s">
+        <v>192</v>
+      </c>
+      <c r="O8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="H9" t="s">
+        <v>200</v>
+      </c>
+      <c r="J9" t="s">
+        <v>201</v>
+      </c>
+      <c r="M9" t="s">
+        <v>202</v>
+      </c>
+      <c r="O9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="H10" t="s">
+        <v>210</v>
+      </c>
+      <c r="J10" t="s">
+        <v>211</v>
+      </c>
+      <c r="M10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="H11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="H12" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="H13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="H14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/testdata/robot_CDC_NIDRS_report_simple.xlsx
+++ b/testdata/robot_CDC_NIDRS_report_simple.xlsx
@@ -1,22 +1,69 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docker0814\test_RobotFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30CB32B-8F01-4E66-8A68-01A55B3A6CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0A0C28-37C0-40E6-94E4-3A6F66E72672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="230" windowWidth="9960" windowHeight="9510" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5530" yWindow="70" windowWidth="12620" windowHeight="9420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="report" sheetId="2" r:id="rId2"/>
-    <sheet name="清單" sheetId="3" r:id="rId3"/>
+    <sheet name="update" sheetId="4" r:id="rId3"/>
+    <sheet name="清單" sheetId="3" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="二林鎮">清單!$D$11</definedName>
+    <definedName name="士林區">清單!$D$3</definedName>
+    <definedName name="中壢區">清單!$D$4</definedName>
+    <definedName name="六甲區">清單!$D$6</definedName>
+    <definedName name="台中市">清單!$C$5</definedName>
+    <definedName name="台北市">清單!$C$3</definedName>
+    <definedName name="台東縣">清單!$C$16</definedName>
+    <definedName name="台南市">清單!$C$6</definedName>
+    <definedName name="安樂區">清單!$D$19</definedName>
+    <definedName name="竹北市">清單!$D$9</definedName>
+    <definedName name="竹田鄉">清單!$D$15</definedName>
+    <definedName name="西_區">清單!$D$21</definedName>
+    <definedName name="宜蘭縣">清單!$C$8</definedName>
+    <definedName name="東引鄉">清單!$D$23</definedName>
+    <definedName name="板橋區">清單!$D$2</definedName>
+    <definedName name="林內鄉">清單!$D$13</definedName>
+    <definedName name="花蓮縣">清單!$C$17</definedName>
+    <definedName name="金門縣">清單!$C$22</definedName>
+    <definedName name="金城鎮">清單!$D$22</definedName>
+    <definedName name="南投縣">清單!$C$12</definedName>
+    <definedName name="屏東縣">清單!$C$15</definedName>
+    <definedName name="美濃區">清單!$D$7</definedName>
+    <definedName name="苑裡鎮">清單!$D$10</definedName>
+    <definedName name="苗栗縣">清單!$C$10</definedName>
+    <definedName name="香山區">清單!$D$20</definedName>
+    <definedName name="桃園市">清單!$C$4</definedName>
+    <definedName name="烏日區">清單!$D$5</definedName>
+    <definedName name="馬公市">清單!$D$18</definedName>
+    <definedName name="高雄市">清單!$C$7</definedName>
+    <definedName name="基隆市">清單!$C$19</definedName>
+    <definedName name="梅山鄉">清單!$D$14</definedName>
+    <definedName name="連江縣">清單!$C$23</definedName>
+    <definedName name="魚池鄉">清單!$D$12</definedName>
+    <definedName name="富里鄉">清單!$D$17</definedName>
+    <definedName name="雲林縣">清單!$C$13</definedName>
+    <definedName name="新北市">清單!$C$2</definedName>
+    <definedName name="新竹市">清單!$C$20</definedName>
+    <definedName name="新竹縣">清單!$C$9</definedName>
+    <definedName name="嘉義市">清單!$C$21</definedName>
+    <definedName name="嘉義縣">清單!$C$14</definedName>
+    <definedName name="彰化縣">清單!$C$11</definedName>
+    <definedName name="澎湖縣">清單!$C$18</definedName>
+    <definedName name="羅東鎮">清單!$D$8</definedName>
+    <definedName name="蘭嶼鄉">清單!$D$16</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="376">
   <si>
     <t>User</t>
   </si>
@@ -170,9 +217,6 @@
     <t>個案是否死亡</t>
   </si>
   <si>
-    <t>臺東市</t>
-  </si>
-  <si>
     <t>DISEASE</t>
   </si>
   <si>
@@ -203,13 +247,7 @@
     <t>民國66/06/02</t>
   </si>
   <si>
-    <t>信義區</t>
-  </si>
-  <si>
     <t>桃園市</t>
-  </si>
-  <si>
-    <t>桃園區</t>
   </si>
   <si>
     <t>主要症狀</t>
@@ -1151,11 +1189,150 @@
   <si>
     <t>DEATH_REASON</t>
   </si>
+  <si>
+    <t>疾病</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾病名稱</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>嚴重特殊傳染性肺炎(併發症)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>006</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿米巴性痢疾</t>
+  </si>
+  <si>
+    <t>010</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>登革熱</t>
+  </si>
+  <si>
+    <t>19CVS</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>結核病</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>044</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>人類免疫缺乏病毒感染(含母子垂直感染及孕產婦疑似個案)</t>
+  </si>
+  <si>
+    <t>061</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅毒</t>
+  </si>
+  <si>
+    <t>090</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>淋病</t>
+  </si>
+  <si>
+    <t>098</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鉤端螺旋體病</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
+  </si>
+  <si>
+    <t>FUNCTION</t>
+  </si>
+  <si>
+    <t>項目</t>
+  </si>
+  <si>
+    <t>黃色為必填項目</t>
+  </si>
+  <si>
+    <t>必填</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾病名稱</t>
+  </si>
+  <si>
+    <t>中壢區</t>
+  </si>
+  <si>
+    <t>蘭嶼鄉</t>
+  </si>
+  <si>
+    <t>士林區</t>
+  </si>
+  <si>
+    <t>前者為TRUE需填寫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃色: 必填項目
+橙色: 由衛生局審核項目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>請填寫1~5/不填寫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不填寫</t>
+  </si>
+  <si>
+    <t>不填寫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_REASON</t>
+  </si>
+  <si>
+    <t>增修原因</t>
+  </si>
+  <si>
+    <t>必填修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改衛生局審核</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>民國70/06/02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>苑裡鎮</t>
+  </si>
+  <si>
+    <t>不填寫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+  </numFmts>
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -1207,7 +1384,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1217,6 +1394,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1248,20 +1431,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1269,28 +1443,64 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1621,614 +1831,692 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A71B8D-93C4-4E3E-ABF8-78CB141697D7}">
-  <dimension ref="A1:AI6"/>
+  <dimension ref="A1:AL6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="17.3984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.8984375" customWidth="1"/>
-    <col min="4" max="4" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.19921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.09765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.8984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.69921875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.796875" style="3"/>
+    <col min="3" max="3" width="19.19921875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.3984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.8984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.8984375" customWidth="1"/>
+    <col min="7" max="7" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.3984375" customWidth="1"/>
+    <col min="12" max="12" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.8984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.59765625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.8984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="32.09765625" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.59765625" customWidth="1"/>
-    <col min="20" max="20" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.59765625" customWidth="1"/>
+    <col min="19" max="19" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.19921875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14.8984375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.8984375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="34.09765625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="26.3984375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="28.796875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="26.3984375" customWidth="1"/>
+    <col min="23" max="23" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.8984375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="34.09765625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="26.3984375" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="28.796875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="26.296875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="26.3984375" customWidth="1"/>
-    <col min="31" max="31" width="28.796875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="26.296875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="18.09765625" customWidth="1"/>
-    <col min="34" max="34" width="28.796875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="26.296875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="26.3984375" customWidth="1"/>
+    <col min="30" max="30" width="28.796875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="26.296875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="26.3984375" customWidth="1"/>
+    <col min="33" max="33" width="28.796875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="26.296875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="18.09765625" customWidth="1"/>
+    <col min="36" max="36" width="28.796875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="26.296875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="32.09765625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:38">
+      <c r="A1" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="E1" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB1" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="AC1" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="AF1" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="AG1" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="AH1" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="AI1" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="AJ1" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="AK1" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="AL1" s="7" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" s="2" customFormat="1" ht="72.5">
+      <c r="A2" s="7"/>
+      <c r="B2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB2" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="AC2" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="AD2" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="AE2" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="AF2" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="AG2" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="AH2" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="AI2" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="AJ2" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="AK2" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="AL2" s="7"/>
+    </row>
+    <row r="3" spans="1:38" ht="43.5">
+      <c r="A3" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>369</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB3" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="AC3" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="AD3" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="AE3" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="AF3" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="AG3" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="AH3" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="AI3" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="AJ3" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="AK3" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="AL3" s="7" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1" s="9" t="s">
+      <c r="E4" s="20"/>
+      <c r="F4" s="7">
+        <v>2</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" s="9">
+        <v>12345</v>
+      </c>
+      <c r="N4" s="9">
+        <v>54321</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q4" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="U4" s="9">
+        <v>-2</v>
+      </c>
+      <c r="V4" s="9">
+        <v>-1</v>
+      </c>
+      <c r="W4" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA4" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="10"/>
+      <c r="AJ4" s="10"/>
+      <c r="AK4" s="10"/>
+      <c r="AL4" s="7"/>
+    </row>
+    <row r="5" spans="1:38" ht="29">
+      <c r="A5" s="9">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="20"/>
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="9">
+        <v>12345</v>
+      </c>
+      <c r="N5" s="9">
+        <v>54321</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q5" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="R5" s="9">
+        <v>-2</v>
+      </c>
+      <c r="S5" s="9">
+        <v>-3</v>
+      </c>
+      <c r="T5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="U5" s="9">
+        <v>-2</v>
+      </c>
+      <c r="V5" s="9">
+        <v>-1</v>
+      </c>
+      <c r="W5" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="X5" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="Q1" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="R1" s="15" t="s">
-        <v>339</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="T1" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="U1" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="V1" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="W1" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="X1" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y1" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" s="2" customFormat="1" ht="72.5">
-      <c r="A2" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="R2" s="15"/>
-      <c r="S2" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" ht="29">
-      <c r="A3" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="11" t="s">
+      <c r="Y5" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="P3" s="9" t="s">
+      <c r="AA5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="10"/>
+      <c r="AJ5" s="10"/>
+      <c r="AK5" s="10"/>
+      <c r="AL5" s="9"/>
+    </row>
+    <row r="6" spans="1:38" ht="29">
+      <c r="A6" s="9">
+        <v>1</v>
+      </c>
+      <c r="B6" s="9">
+        <v>3</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="20"/>
+      <c r="F6" s="7">
+        <v>3</v>
+      </c>
+      <c r="G6" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="Q3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="R3" s="15" t="s">
-        <v>340</v>
-      </c>
-      <c r="S3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="T3" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="U3" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="V3" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="W3" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="X3" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="AA3" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="AC3" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="AE3" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="AF3" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="AG3" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="AH3" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="AI3" s="3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35">
-      <c r="A4" s="3">
+      <c r="H6" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" s="9">
+        <v>12345</v>
+      </c>
+      <c r="N6" s="9">
+        <v>54321</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9">
+        <v>-5</v>
+      </c>
+      <c r="T6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="U6" s="9">
+        <v>-4</v>
+      </c>
+      <c r="V6" s="9">
+        <v>-2</v>
+      </c>
+      <c r="W6" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="9">
-        <v>2</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="J4" s="10">
-        <v>12345</v>
-      </c>
-      <c r="K4" s="10">
-        <v>54321</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="N4" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="O4" s="10" t="b">
+      <c r="X6" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y6" s="9">
         <v>0</v>
       </c>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="3" t="b">
+      <c r="Z6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA6" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="R4" s="15"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10">
-        <v>-2</v>
-      </c>
-      <c r="V4" s="10">
-        <v>-1</v>
-      </c>
-      <c r="W4" s="10">
-        <v>-1</v>
-      </c>
-      <c r="X4" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y4" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
-      <c r="AF4" s="3"/>
-      <c r="AG4" s="3"/>
-      <c r="AH4" s="3"/>
-      <c r="AI4" s="3"/>
-    </row>
-    <row r="5" spans="1:35" ht="29">
-      <c r="A5" s="10">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="9">
-        <v>1</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" s="10">
-        <v>12345</v>
-      </c>
-      <c r="K5" s="10">
-        <v>54321</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="N5" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O5" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="S5" s="10">
-        <v>-2</v>
-      </c>
-      <c r="T5" s="10">
-        <v>-3</v>
-      </c>
-      <c r="U5" s="10">
-        <v>-2</v>
-      </c>
-      <c r="V5" s="10">
-        <v>-1</v>
-      </c>
-      <c r="W5" s="10">
-        <v>-1</v>
-      </c>
-      <c r="X5" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y5" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="3"/>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="3"/>
-      <c r="AF5" s="3"/>
-      <c r="AG5" s="3"/>
-      <c r="AH5" s="3"/>
-      <c r="AI5" s="3"/>
-    </row>
-    <row r="6" spans="1:35" ht="29">
-      <c r="A6" s="10">
-        <v>3</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="9">
-        <v>3</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="10">
-        <v>12345</v>
-      </c>
-      <c r="K6" s="10">
-        <v>54321</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="N6" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="O6" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="P6" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10">
-        <v>-5</v>
-      </c>
-      <c r="U6" s="10">
-        <v>-4</v>
-      </c>
-      <c r="V6" s="10">
-        <v>-2</v>
-      </c>
-      <c r="W6" s="10">
-        <v>0</v>
-      </c>
-      <c r="X6" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="3"/>
-      <c r="AE6" s="3"/>
-      <c r="AF6" s="3"/>
-      <c r="AG6" s="3"/>
-      <c r="AH6" s="3"/>
-      <c r="AI6" s="3"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="10"/>
+      <c r="AJ6" s="10"/>
+      <c r="AK6" s="10"/>
+      <c r="AL6" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="S2:W2"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B6" xr:uid="{B25316DA-7513-424F-AB73-5D5A1463C93F}">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB6 AB4" xr:uid="{0592544F-E481-4D64-BCEB-E946C8D6EF12}">
+      <formula1>"1,2,3"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D6" xr:uid="{B25316DA-7513-424F-AB73-5D5A1463C93F}">
       <formula1>"True,False"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z4:Z6" xr:uid="{0592544F-E481-4D64-BCEB-E946C8D6EF12}">
-      <formula1>"1,2,3"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y4:Y6 Q4:Q6" xr:uid="{177637FB-5483-4E1F-954D-CED4CDC2F4A0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA4:AA6 Q4:Q6 W4:W6 T4:T6" xr:uid="{177637FB-5483-4E1F-954D-CED4CDC2F4A0}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C6" xr:uid="{8C00585E-AC91-4990-8383-69245AC27802}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F6" xr:uid="{8C00585E-AC91-4990-8383-69245AC27802}">
       <formula1>"1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4:Q6 T4:T6" xr:uid="{694D02E9-6DDE-4C30-9CDA-7810AA54B45B}">
+      <formula1>INDIRECT(O4)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3882078D-654D-4E3B-AC9A-9676BB36420E}">
           <x14:formula1>
             <xm:f>清單!$B$2:$B$23</xm:f>
           </x14:formula1>
-          <xm:sqref>AA4 L4:L6</xm:sqref>
+          <xm:sqref>AC4 O4:O6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A18C1B7D-2AC3-45E4-906E-2505735FA097}">
           <x14:formula1>
             <xm:f>清單!$E$2:$E$34</xm:f>
           </x14:formula1>
-          <xm:sqref>AD4:AD6 AG4:AG6</xm:sqref>
+          <xm:sqref>AF4:AF6 AI4:AI6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F0694FEB-D0AE-48AA-9AB0-C6E9BB9D34EA}">
+          <x14:formula1>
+            <xm:f>清單!$T$2:$T$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>G4:G6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9EEDCBF4-FAA4-4750-959E-562966E5EE64}">
+          <x14:formula1>
+            <xm:f>清單!$S$2:$S$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>H4:H6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F9EF9ECD-D01C-44A3-97B3-6033C3665A7A}">
+          <x14:formula1>
+            <xm:f>清單!$A$2:$A$36</xm:f>
+          </x14:formula1>
+          <xm:sqref>Z4:Z6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2237,11 +2525,603 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A741C4F4-3E40-4B94-ABA1-BEE2913F0E14}">
+  <dimension ref="A1:AL6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="3" max="3" width="17.69921875" customWidth="1"/>
+    <col min="5" max="5" width="13.8984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.69921875" customWidth="1"/>
+    <col min="26" max="26" width="34.09765625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12" customWidth="1"/>
+    <col min="31" max="31" width="11.19921875" customWidth="1"/>
+    <col min="32" max="32" width="17.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" ht="43.5">
+      <c r="A1" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U1" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="V1" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB1" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="AC1" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="AF1" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="AG1" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="AH1" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="AI1" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="AJ1" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="AK1" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="AL1" s="7" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" ht="55.5" customHeight="1">
+      <c r="A2" s="7"/>
+      <c r="B2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="22"/>
+      <c r="F2" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB2" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="AC2" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="AD2" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="AE2" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="AF2" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="AG2" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="AH2" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="AI2" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="AJ2" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="AK2" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="AL2" s="7"/>
+    </row>
+    <row r="3" spans="1:38" ht="58">
+      <c r="A3" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>369</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB3" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="AC3" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="AD3" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="AE3" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="AF3" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="AG3" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="AH3" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="AI3" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="AJ3" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="AK3" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="AL3" s="7" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10">
+        <v>1</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="20">
+        <v>45307</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9">
+        <v>54321</v>
+      </c>
+      <c r="N4" s="9">
+        <v>12345</v>
+      </c>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA4" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="10">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG4" s="10">
+        <v>-15</v>
+      </c>
+      <c r="AH4" s="10">
+        <v>-10</v>
+      </c>
+      <c r="AI4" s="10"/>
+      <c r="AJ4" s="10"/>
+      <c r="AK4" s="10"/>
+      <c r="AL4" s="7"/>
+    </row>
+    <row r="5" spans="1:38" ht="29">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="20">
+        <v>45307</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA5" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="10">
+        <v>3</v>
+      </c>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="AJ5" s="10">
+        <v>-10</v>
+      </c>
+      <c r="AK5" s="10">
+        <v>-10</v>
+      </c>
+      <c r="AL5" s="9"/>
+    </row>
+    <row r="6" spans="1:38">
+      <c r="A6" s="9">
+        <v>2</v>
+      </c>
+      <c r="B6" s="9">
+        <v>3</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="20">
+        <v>45307</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA6" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="10">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD6" s="10">
+        <v>-20</v>
+      </c>
+      <c r="AE6" s="10">
+        <v>-19</v>
+      </c>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="10"/>
+      <c r="AJ6" s="10"/>
+      <c r="AK6" s="10"/>
+      <c r="AL6" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4:P6" xr:uid="{9332F3F5-7ECA-4202-848A-09707B7835F6}">
+      <formula1>INDIRECT(O4)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB4:AB6" xr:uid="{54C32FEB-0D11-410F-B65A-C7AFD2ADFE06}">
+      <formula1>"1,2,3"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F6" xr:uid="{3EB9DACA-4C69-411C-B904-072E7D4E4BE8}">
+      <formula1>"1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W4:W6 T4:T6 Q4:Q6 AA4:AA6" xr:uid="{3B309BE3-39D8-4FFF-810A-D9F4A00612A5}">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D6" xr:uid="{F9F0591B-E526-46AD-9D81-6A04F9F88AD3}">
+      <formula1>"True,False"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7D6A18CC-59DD-483B-B58F-CD3A61A85E42}">
+          <x14:formula1>
+            <xm:f>清單!$A$2:$A$36</xm:f>
+          </x14:formula1>
+          <xm:sqref>Z4:Z6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F60E4304-FC05-4D63-AA09-6B40BBC10C3B}">
+          <x14:formula1>
+            <xm:f>清單!$S$2:$S$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>H4:H6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{31E67836-5CEF-4860-A5CA-7CD0C9E38118}">
+          <x14:formula1>
+            <xm:f>清單!$T$2:$T$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>G4:G6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CF1951D5-7401-4222-9646-0B944B16D676}">
+          <x14:formula1>
+            <xm:f>清單!$E$2:$E$34</xm:f>
+          </x14:formula1>
+          <xm:sqref>AF4:AF6 AI4:AI6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{489F06A8-2879-4FC1-8DA3-3352B095A08C}">
+          <x14:formula1>
+            <xm:f>清單!$B$2:$B$23</xm:f>
+          </x14:formula1>
+          <xm:sqref>AC4:AC6 O4:O6</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B42E08-3874-4EAF-BB78-A7F169EE7AB4}">
-  <dimension ref="A1:R36"/>
+  <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2257,888 +3137,963 @@
     <col min="12" max="12" width="19.796875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.3984375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="34.5" customWidth="1"/>
+    <col min="20" max="20" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.5">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:20" ht="15.5">
+      <c r="A1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="G1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="H1" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="I1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="J1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="L1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="M1" t="s">
         <v>89</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="N1" t="s">
         <v>90</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="O1" t="s">
         <v>91</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>92</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>93</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>94</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
+        <v>338</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="C2" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="R1" t="s">
+      <c r="D2" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="E2" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="F2" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="G2" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="H2" t="s">
         <v>101</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="I2" t="s">
         <v>102</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="J2" t="s">
         <v>103</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>104</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>105</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>106</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>107</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>108</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>109</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
+        <v>109</v>
+      </c>
+      <c r="R2" t="s">
         <v>110</v>
       </c>
-      <c r="O2" t="s">
+      <c r="S2" t="s">
+        <v>340</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="P2" t="s">
+      <c r="D3" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="Q2" t="s">
-        <v>112</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="E3" s="3" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="F3" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="G3" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="H3" t="s">
         <v>116</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="I3" t="s">
         <v>117</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="J3" t="s">
         <v>118</v>
       </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
         <v>119</v>
       </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>120</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="s">
         <v>121</v>
       </c>
-      <c r="K3" t="s">
+      <c r="N3" t="s">
         <v>122</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>123</v>
       </c>
-      <c r="M3" t="s">
+      <c r="P3" t="s">
         <v>124</v>
       </c>
-      <c r="N3" t="s">
+      <c r="Q3" t="s">
+        <v>124</v>
+      </c>
+      <c r="R3" t="s">
         <v>125</v>
       </c>
-      <c r="O3" t="s">
+      <c r="S3" t="s">
+        <v>342</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="P3" t="s">
+      <c r="D4" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="Q3" t="s">
-        <v>127</v>
-      </c>
-      <c r="R3" t="s">
+      <c r="E4" s="3" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="F4" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H4" t="s">
+        <v>131</v>
+      </c>
+      <c r="I4" t="s">
+        <v>132</v>
+      </c>
+      <c r="J4" t="s">
+        <v>133</v>
+      </c>
+      <c r="K4" t="s">
+        <v>134</v>
+      </c>
+      <c r="L4" t="s">
+        <v>135</v>
+      </c>
+      <c r="M4" t="s">
+        <v>136</v>
+      </c>
+      <c r="N4" t="s">
+        <v>137</v>
+      </c>
+      <c r="O4" t="s">
+        <v>138</v>
+      </c>
+      <c r="P4" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>122</v>
+      </c>
+      <c r="R4" t="s">
+        <v>139</v>
+      </c>
+      <c r="S4" t="s">
+        <v>344</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H5" t="s">
+        <v>147</v>
+      </c>
+      <c r="I5" t="s">
+        <v>148</v>
+      </c>
+      <c r="J5" t="s">
+        <v>149</v>
+      </c>
+      <c r="K5" t="s">
+        <v>150</v>
+      </c>
+      <c r="L5" t="s">
+        <v>151</v>
+      </c>
+      <c r="M5" t="s">
+        <v>152</v>
+      </c>
+      <c r="N5" t="s">
+        <v>153</v>
+      </c>
+      <c r="O5" t="s">
+        <v>154</v>
+      </c>
+      <c r="P5" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>156</v>
+      </c>
+      <c r="R5" t="s">
+        <v>157</v>
+      </c>
+      <c r="S5" t="s">
+        <v>346</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H6" t="s">
+        <v>165</v>
+      </c>
+      <c r="I6" t="s">
+        <v>166</v>
+      </c>
+      <c r="J6" t="s">
+        <v>167</v>
+      </c>
+      <c r="K6" t="s">
+        <v>168</v>
+      </c>
+      <c r="M6" t="s">
+        <v>169</v>
+      </c>
+      <c r="O6" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>155</v>
+      </c>
+      <c r="R6" t="s">
+        <v>170</v>
+      </c>
+      <c r="S6" t="s">
+        <v>348</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H7" t="s">
+        <v>177</v>
+      </c>
+      <c r="I7" t="s">
+        <v>170</v>
+      </c>
+      <c r="J7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K7" t="s">
+        <v>179</v>
+      </c>
+      <c r="M7" t="s">
+        <v>180</v>
+      </c>
+      <c r="O7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>170</v>
+      </c>
+      <c r="S7" t="s">
+        <v>350</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H8" t="s">
+        <v>187</v>
+      </c>
+      <c r="I8" t="s">
+        <v>168</v>
+      </c>
+      <c r="J8" t="s">
+        <v>188</v>
+      </c>
+      <c r="M8" t="s">
+        <v>189</v>
+      </c>
+      <c r="O8" t="s">
+        <v>190</v>
+      </c>
+      <c r="S8" t="s">
+        <v>352</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H9" t="s">
+        <v>197</v>
+      </c>
+      <c r="J9" t="s">
+        <v>198</v>
+      </c>
+      <c r="M9" t="s">
+        <v>199</v>
+      </c>
+      <c r="O9" t="s">
+        <v>200</v>
+      </c>
+      <c r="S9" t="s">
+        <v>354</v>
+      </c>
+      <c r="T9" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="H10" t="s">
+        <v>207</v>
+      </c>
+      <c r="J10" t="s">
+        <v>208</v>
+      </c>
+      <c r="M10" t="s">
+        <v>170</v>
+      </c>
+      <c r="S10" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="H4" t="s">
-        <v>134</v>
-      </c>
-      <c r="I4" t="s">
-        <v>135</v>
-      </c>
-      <c r="J4" t="s">
-        <v>136</v>
-      </c>
-      <c r="K4" t="s">
-        <v>137</v>
-      </c>
-      <c r="L4" t="s">
-        <v>138</v>
-      </c>
-      <c r="M4" t="s">
-        <v>139</v>
-      </c>
-      <c r="N4" t="s">
-        <v>140</v>
-      </c>
-      <c r="O4" t="s">
-        <v>141</v>
-      </c>
-      <c r="P4" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>125</v>
-      </c>
-      <c r="R4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="H5" t="s">
-        <v>150</v>
-      </c>
-      <c r="I5" t="s">
-        <v>151</v>
-      </c>
-      <c r="J5" t="s">
-        <v>152</v>
-      </c>
-      <c r="K5" t="s">
-        <v>153</v>
-      </c>
-      <c r="L5" t="s">
-        <v>154</v>
-      </c>
-      <c r="M5" t="s">
-        <v>155</v>
-      </c>
-      <c r="N5" t="s">
-        <v>156</v>
-      </c>
-      <c r="O5" t="s">
-        <v>157</v>
-      </c>
-      <c r="P5" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>159</v>
-      </c>
-      <c r="R5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="H6" t="s">
-        <v>168</v>
-      </c>
-      <c r="I6" t="s">
-        <v>169</v>
-      </c>
-      <c r="J6" t="s">
-        <v>170</v>
-      </c>
-      <c r="K6" t="s">
-        <v>171</v>
-      </c>
-      <c r="M6" t="s">
-        <v>172</v>
-      </c>
-      <c r="O6" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>158</v>
-      </c>
-      <c r="R6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="G7" t="s">
-        <v>173</v>
-      </c>
-      <c r="H7" t="s">
-        <v>180</v>
-      </c>
-      <c r="I7" t="s">
-        <v>173</v>
-      </c>
-      <c r="J7" t="s">
-        <v>181</v>
-      </c>
-      <c r="K7" t="s">
-        <v>182</v>
-      </c>
-      <c r="M7" t="s">
-        <v>183</v>
-      </c>
-      <c r="O7" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="H8" t="s">
-        <v>190</v>
-      </c>
-      <c r="I8" t="s">
-        <v>171</v>
-      </c>
-      <c r="J8" t="s">
-        <v>191</v>
-      </c>
-      <c r="M8" t="s">
-        <v>192</v>
-      </c>
-      <c r="O8" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="H9" t="s">
-        <v>200</v>
-      </c>
-      <c r="J9" t="s">
-        <v>201</v>
-      </c>
-      <c r="M9" t="s">
-        <v>202</v>
-      </c>
-      <c r="O9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="F10" s="6" t="s">
+      <c r="T10" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="H10" t="s">
+      <c r="B11" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="J10" t="s">
+      <c r="C11" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="M10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" s="6" t="s">
+      <c r="D11" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="E11" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="F11" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="H11" t="s">
         <v>215</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="S11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="B12" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="H11" t="s">
+      <c r="C12" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="6" t="s">
+      <c r="D12" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="E12" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="F12" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="H12" t="s">
         <v>222</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="S12" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="T12" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="B13" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="H12" t="s">
+      <c r="C13" s="3" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="6" t="s">
+      <c r="D13" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="E13" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="F13" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="H13" t="s">
         <v>229</v>
       </c>
-      <c r="E13" s="6" t="s">
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="B14" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="H13" t="s">
+      <c r="C14" s="3" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="6" t="s">
+      <c r="D14" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="E14" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="F14" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="H14" t="s">
         <v>236</v>
       </c>
-      <c r="E14" s="6" t="s">
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="B15" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="H14" t="s">
+      <c r="C15" s="3" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="6" t="s">
+      <c r="D15" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="E15" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="F15" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="D15" s="6" t="s">
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="B16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="D16" s="3" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="6" t="s">
+      <c r="E16" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="F16" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="D16" s="6" t="s">
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="B17" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="C17" s="3" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="6" t="s">
+      <c r="D17" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="E17" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="F17" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="D17" s="6" t="s">
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="B18" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="C18" s="3" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="6" t="s">
+      <c r="D18" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="E18" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="F18" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="D18" s="6" t="s">
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="B19" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="C19" s="3" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="6" t="s">
+      <c r="D19" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="E19" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="B20" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="C20" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="6" t="s">
+      <c r="D20" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="E20" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="B21" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="C21" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="6" t="s">
+      <c r="D21" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="E21" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="B22" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="C22" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="6" t="s">
+      <c r="D22" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="E22" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="B23" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="C23" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="6" t="s">
+      <c r="D23" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="E23" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="F23" s="6"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="6" t="s">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6" t="s">
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="F24" s="6"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="6" t="s">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6" t="s">
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="F25" s="6"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="6" t="s">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6" t="s">
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="F26" s="6"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="6" t="s">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6" t="s">
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="F27" s="6"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="6" t="s">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6" t="s">
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="F28" s="6"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="6" t="s">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6" t="s">
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="F29" s="6"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="6" t="s">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6" t="s">
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="F30" s="6"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="6" t="s">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6" t="s">
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="F31" s="6"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="6" t="s">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6" t="s">
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="F32" s="6"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="6" t="s">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6" t="s">
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="F33" s="6"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="6" t="s">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="F34" s="6"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/testdata/robot_CDC_NIDRS_report_simple.xlsx
+++ b/testdata/robot_CDC_NIDRS_report_simple.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docker0814\test_RobotFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0A0C28-37C0-40E6-94E4-3A6F66E72672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED09879-DE41-410F-B062-8F7C03AECC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5530" yWindow="70" windowWidth="12620" windowHeight="9420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5510" yWindow="0" windowWidth="12620" windowHeight="9930" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="378">
   <si>
     <t>User</t>
   </si>
@@ -1324,6 +1324,14 @@
   <si>
     <t>不填寫</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>編號</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1431,7 +1439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1491,17 +1499,8 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1831,187 +1830,191 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A71B8D-93C4-4E3E-ABF8-78CB141697D7}">
-  <dimension ref="A1:AL6"/>
+  <dimension ref="A1:AM6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="3"/>
-    <col min="3" max="3" width="19.19921875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17.3984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.8984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.8984375" customWidth="1"/>
-    <col min="7" max="7" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.19921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.3984375" customWidth="1"/>
-    <col min="12" max="12" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.09765625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.8984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.8984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.59765625" customWidth="1"/>
-    <col min="19" max="19" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.8984375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.69921875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.8984375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="34.09765625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="26.3984375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="28.796875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="26.3984375" customWidth="1"/>
-    <col min="30" max="30" width="28.796875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="26.296875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="26.3984375" customWidth="1"/>
-    <col min="33" max="33" width="28.796875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="26.296875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="18.09765625" customWidth="1"/>
-    <col min="36" max="36" width="28.796875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="26.296875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="32.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.796875" style="5"/>
+    <col min="2" max="2" width="8.796875" style="3"/>
+    <col min="4" max="4" width="19.19921875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.3984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.8984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.8984375" customWidth="1"/>
+    <col min="8" max="8" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.3984375" customWidth="1"/>
+    <col min="13" max="13" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.8984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.59765625" customWidth="1"/>
+    <col min="20" max="20" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.8984375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="34.09765625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="26.3984375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="28.796875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="26.3984375" customWidth="1"/>
+    <col min="31" max="31" width="28.796875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="26.296875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="26.3984375" customWidth="1"/>
+    <col min="34" max="34" width="28.796875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="26.296875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18.09765625" customWidth="1"/>
+    <col min="37" max="37" width="28.796875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="26.296875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="32.09765625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:39">
+      <c r="A1" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="F1" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="S1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="T1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="U1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="V1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="W1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="X1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="Y1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="Z1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AA1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AA1" s="14" t="s">
+      <c r="AB1" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="AB1" s="10" t="s">
+      <c r="AC1" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="AC1" s="10" t="s">
+      <c r="AD1" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AE1" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AF1" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="AG1" s="10" t="s">
+      <c r="AH1" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="AH1" s="10" t="s">
+      <c r="AI1" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="AI1" s="10" t="s">
+      <c r="AJ1" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="AJ1" s="10" t="s">
+      <c r="AK1" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="AK1" s="10" t="s">
+      <c r="AL1" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="AL1" s="7" t="s">
+      <c r="AM1" s="7" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="2" spans="1:38" s="2" customFormat="1" ht="72.5">
-      <c r="A2" s="7"/>
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="1:39" s="2" customFormat="1" ht="72.5">
+      <c r="A2" s="5"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="F2" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="16"/>
       <c r="H2" s="16"/>
-      <c r="I2" s="7"/>
+      <c r="I2" s="16"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
@@ -2019,258 +2022,264 @@
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="S2" s="7" t="s">
         <v>52</v>
       </c>
       <c r="T2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="U2" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="V2" s="7" t="s">
         <v>52</v>
       </c>
       <c r="W2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="X2" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="Y2" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
-      <c r="AA2" s="10" t="s">
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AB2" s="10" t="s">
+      <c r="AC2" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="AD2" s="10" t="s">
         <v>320</v>
-      </c>
-      <c r="AD2" s="10" t="s">
-        <v>321</v>
       </c>
       <c r="AE2" s="10" t="s">
         <v>321</v>
       </c>
       <c r="AF2" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="AG2" s="10" t="s">
         <v>322</v>
-      </c>
-      <c r="AG2" s="10" t="s">
-        <v>323</v>
       </c>
       <c r="AH2" s="10" t="s">
         <v>323</v>
       </c>
       <c r="AI2" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="AJ2" s="10" t="s">
         <v>324</v>
-      </c>
-      <c r="AJ2" s="10" t="s">
-        <v>325</v>
       </c>
       <c r="AK2" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="AL2" s="7"/>
-    </row>
-    <row r="3" spans="1:38" ht="43.5">
-      <c r="A3" s="9" t="s">
+      <c r="AL2" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="AM2" s="7"/>
+    </row>
+    <row r="3" spans="1:39" ht="29">
+      <c r="A3" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="E3" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="F3" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="H3" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="I3" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="J3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="K3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="L3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="M3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="N3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="O3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="P3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="Q3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="R3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="S3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="T3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="T3" s="9" t="s">
+      <c r="U3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="U3" s="9" t="s">
+      <c r="V3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="V3" s="9" t="s">
+      <c r="W3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="W3" s="9" t="s">
+      <c r="X3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="X3" s="7" t="s">
+      <c r="Y3" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="Y3" s="9" t="s">
+      <c r="Z3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="Z3" s="9" t="s">
+      <c r="AA3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AA3" s="10" t="s">
+      <c r="AB3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AB3" s="10" t="s">
+      <c r="AC3" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="AC3" s="10" t="s">
+      <c r="AD3" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="AD3" s="10" t="s">
+      <c r="AE3" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="AE3" s="10" t="s">
+      <c r="AF3" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="AF3" s="10" t="s">
+      <c r="AG3" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="AG3" s="10" t="s">
+      <c r="AH3" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="AH3" s="10" t="s">
+      <c r="AI3" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="AI3" s="10" t="s">
+      <c r="AJ3" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="AJ3" s="10" t="s">
+      <c r="AK3" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="AK3" s="10" t="s">
+      <c r="AL3" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="AL3" s="7" t="s">
+      <c r="AM3" s="7" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
-      <c r="A4" s="9">
+    <row r="4" spans="1:39">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>1</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="E4" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="7">
+      <c r="F4" s="20"/>
+      <c r="G4" s="7">
         <v>2</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="H4" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="I4" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="J4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="K4" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="L4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="M4" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="M4" s="9">
+      <c r="N4" s="9">
         <v>12345</v>
       </c>
-      <c r="N4" s="9">
+      <c r="O4" s="9">
         <v>54321</v>
       </c>
-      <c r="O4" s="10" t="s">
+      <c r="P4" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="Q4" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="Q4" s="10" t="b">
+      <c r="R4" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="R4" s="9"/>
       <c r="S4" s="9"/>
-      <c r="T4" s="10" t="b">
+      <c r="T4" s="9"/>
+      <c r="U4" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="U4" s="9">
+      <c r="V4" s="9">
         <v>-2</v>
       </c>
-      <c r="V4" s="9">
+      <c r="W4" s="9">
         <v>-1</v>
       </c>
-      <c r="W4" s="10" t="b">
+      <c r="X4" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="9">
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="9">
         <v>0</v>
       </c>
-      <c r="Z4" s="9" t="s">
+      <c r="AA4" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AA4" s="10" t="b">
+      <c r="AB4" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AB4" s="10"/>
       <c r="AC4" s="10"/>
       <c r="AD4" s="10"/>
       <c r="AE4" s="10"/>
@@ -2280,90 +2289,93 @@
       <c r="AI4" s="10"/>
       <c r="AJ4" s="10"/>
       <c r="AK4" s="10"/>
-      <c r="AL4" s="7"/>
-    </row>
-    <row r="5" spans="1:38" ht="29">
-      <c r="A5" s="9">
+      <c r="AL4" s="10"/>
+      <c r="AM4" s="7"/>
+    </row>
+    <row r="5" spans="1:39" ht="29">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9">
         <v>1</v>
       </c>
-      <c r="B5" s="9">
+      <c r="C5" s="9">
         <v>2</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="E5" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="7">
+      <c r="F5" s="20"/>
+      <c r="G5" s="7">
         <v>1</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="H5" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="I5" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="J5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="K5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="L5" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="M5" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="9">
+      <c r="N5" s="9">
         <v>12345</v>
       </c>
-      <c r="N5" s="9">
+      <c r="O5" s="9">
         <v>54321</v>
       </c>
-      <c r="O5" s="10" t="s">
+      <c r="P5" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="P5" s="10" t="s">
+      <c r="Q5" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="Q5" s="10" t="b">
+      <c r="R5" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="R5" s="9">
+      <c r="S5" s="9">
         <v>-2</v>
       </c>
-      <c r="S5" s="9">
+      <c r="T5" s="9">
         <v>-3</v>
       </c>
-      <c r="T5" s="10" t="b">
+      <c r="U5" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="U5" s="9">
+      <c r="V5" s="9">
         <v>-2</v>
       </c>
-      <c r="V5" s="9">
+      <c r="W5" s="9">
         <v>-1</v>
       </c>
-      <c r="W5" s="10" t="b">
+      <c r="X5" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="X5" s="7" t="s">
+      <c r="Y5" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="Y5" s="9">
+      <c r="Z5" s="9">
         <v>0</v>
       </c>
-      <c r="Z5" s="9" t="s">
+      <c r="AA5" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="AA5" s="10" t="b">
+      <c r="AB5" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AB5" s="9"/>
-      <c r="AC5" s="10"/>
+      <c r="AC5" s="9"/>
       <c r="AD5" s="10"/>
       <c r="AE5" s="10"/>
       <c r="AF5" s="10"/>
@@ -2372,87 +2384,90 @@
       <c r="AI5" s="10"/>
       <c r="AJ5" s="10"/>
       <c r="AK5" s="10"/>
-      <c r="AL5" s="9"/>
-    </row>
-    <row r="6" spans="1:38" ht="29">
-      <c r="A6" s="9">
+      <c r="AL5" s="10"/>
+      <c r="AM5" s="9"/>
+    </row>
+    <row r="6" spans="1:39" ht="29">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9">
         <v>1</v>
       </c>
-      <c r="B6" s="9">
+      <c r="C6" s="9">
         <v>3</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="D6" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="E6" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="7">
+      <c r="F6" s="20"/>
+      <c r="G6" s="7">
         <v>3</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="H6" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="I6" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="J6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="K6" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="L6" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="M6" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="M6" s="9">
+      <c r="N6" s="9">
         <v>12345</v>
       </c>
-      <c r="N6" s="9">
+      <c r="O6" s="9">
         <v>54321</v>
       </c>
-      <c r="O6" s="10" t="s">
+      <c r="P6" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="P6" s="10" t="s">
+      <c r="Q6" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="Q6" s="10" t="b">
+      <c r="R6" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9">
+      <c r="S6" s="9"/>
+      <c r="T6" s="9">
         <v>-5</v>
       </c>
-      <c r="T6" s="10" t="b">
+      <c r="U6" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="U6" s="9">
+      <c r="V6" s="9">
         <v>-4</v>
       </c>
-      <c r="V6" s="9">
+      <c r="W6" s="9">
         <v>-2</v>
       </c>
-      <c r="W6" s="10" t="b">
+      <c r="X6" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="X6" s="7" t="s">
+      <c r="Y6" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="Y6" s="9">
+      <c r="Z6" s="9">
         <v>0</v>
       </c>
-      <c r="Z6" s="9" t="s">
+      <c r="AA6" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="AA6" s="10" t="b">
+      <c r="AB6" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AB6" s="10"/>
       <c r="AC6" s="10"/>
       <c r="AD6" s="10"/>
       <c r="AE6" s="10"/>
@@ -2462,25 +2477,26 @@
       <c r="AI6" s="10"/>
       <c r="AJ6" s="10"/>
       <c r="AK6" s="10"/>
-      <c r="AL6" s="9"/>
+      <c r="AL6" s="10"/>
+      <c r="AM6" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB6 AB4" xr:uid="{0592544F-E481-4D64-BCEB-E946C8D6EF12}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC6 AC4" xr:uid="{0592544F-E481-4D64-BCEB-E946C8D6EF12}">
       <formula1>"1,2,3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D6" xr:uid="{B25316DA-7513-424F-AB73-5D5A1463C93F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E6" xr:uid="{B25316DA-7513-424F-AB73-5D5A1463C93F}">
       <formula1>"True,False"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA4:AA6 Q4:Q6 W4:W6 T4:T6" xr:uid="{177637FB-5483-4E1F-954D-CED4CDC2F4A0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB4:AB6 R4:R6 X4:X6 U4:U6" xr:uid="{177637FB-5483-4E1F-954D-CED4CDC2F4A0}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F6" xr:uid="{8C00585E-AC91-4990-8383-69245AC27802}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G6" xr:uid="{8C00585E-AC91-4990-8383-69245AC27802}">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4:Q6 T4:T6" xr:uid="{694D02E9-6DDE-4C30-9CDA-7810AA54B45B}">
-      <formula1>INDIRECT(O4)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q4:R6 U4:U6" xr:uid="{694D02E9-6DDE-4C30-9CDA-7810AA54B45B}">
+      <formula1>INDIRECT(P4)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2492,31 +2508,31 @@
           <x14:formula1>
             <xm:f>清單!$B$2:$B$23</xm:f>
           </x14:formula1>
-          <xm:sqref>AC4 O4:O6</xm:sqref>
+          <xm:sqref>AD4 P4:P6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A18C1B7D-2AC3-45E4-906E-2505735FA097}">
           <x14:formula1>
             <xm:f>清單!$E$2:$E$34</xm:f>
           </x14:formula1>
-          <xm:sqref>AF4:AF6 AI4:AI6</xm:sqref>
+          <xm:sqref>AG4:AG6 AJ4:AJ6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F0694FEB-D0AE-48AA-9AB0-C6E9BB9D34EA}">
           <x14:formula1>
             <xm:f>清單!$T$2:$T$12</xm:f>
           </x14:formula1>
-          <xm:sqref>G4:G6</xm:sqref>
+          <xm:sqref>H4:H6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9EEDCBF4-FAA4-4750-959E-562966E5EE64}">
           <x14:formula1>
             <xm:f>清單!$S$2:$S$12</xm:f>
           </x14:formula1>
-          <xm:sqref>H4:H6</xm:sqref>
+          <xm:sqref>I4:I6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F9EF9ECD-D01C-44A3-97B3-6033C3665A7A}">
           <x14:formula1>
             <xm:f>清單!$A$2:$A$36</xm:f>
           </x14:formula1>
-          <xm:sqref>Z4:Z6</xm:sqref>
+          <xm:sqref>AA4:AA6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2526,553 +2542,567 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A741C4F4-3E40-4B94-ABA1-BEE2913F0E14}">
-  <dimension ref="A1:AL6"/>
+  <dimension ref="A1:AM6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="3" max="3" width="17.69921875" customWidth="1"/>
-    <col min="5" max="5" width="13.8984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.69921875" customWidth="1"/>
-    <col min="26" max="26" width="34.09765625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12" customWidth="1"/>
-    <col min="31" max="31" width="11.19921875" customWidth="1"/>
-    <col min="32" max="32" width="17.796875" customWidth="1"/>
+    <col min="1" max="1" width="8.796875" style="5"/>
+    <col min="4" max="4" width="17.69921875" customWidth="1"/>
+    <col min="6" max="6" width="13.8984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.69921875" customWidth="1"/>
+    <col min="27" max="27" width="34.09765625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12" customWidth="1"/>
+    <col min="32" max="32" width="11.19921875" customWidth="1"/>
+    <col min="33" max="33" width="17.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="43.5">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:39" ht="43.5">
+      <c r="A1" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="F1" s="14" t="s">
         <v>370</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="K1" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="L1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="M1" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="P1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="Q1" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="S1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="T1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="U1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="U1" s="19" t="s">
+      <c r="V1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="V1" s="19" t="s">
+      <c r="W1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="W1" s="19" t="s">
+      <c r="X1" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="Y1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="Z1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AA1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AA1" s="14" t="s">
+      <c r="AB1" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="AB1" s="10" t="s">
+      <c r="AC1" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="AC1" s="10" t="s">
+      <c r="AD1" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AE1" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AF1" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="AG1" s="10" t="s">
+      <c r="AH1" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="AH1" s="10" t="s">
+      <c r="AI1" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="AI1" s="10" t="s">
+      <c r="AJ1" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="AJ1" s="10" t="s">
+      <c r="AK1" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="AK1" s="10" t="s">
+      <c r="AL1" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="AL1" s="7" t="s">
+      <c r="AM1" s="7" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="55.5" customHeight="1">
-      <c r="A2" s="7"/>
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="1:39" ht="55.5" customHeight="1">
+      <c r="B2" s="7"/>
+      <c r="C2" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="E2" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="10"/>
+      <c r="G2" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="H2" s="16" t="s">
         <v>367</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>367</v>
       </c>
       <c r="J2" s="16" t="s">
         <v>367</v>
       </c>
-      <c r="K2" s="7"/>
+      <c r="K2" s="16" t="s">
+        <v>367</v>
+      </c>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="S2" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7" t="s">
+      <c r="T2" s="7"/>
+      <c r="U2" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="U2" s="7"/>
       <c r="V2" s="7"/>
-      <c r="W2" s="7" t="s">
+      <c r="W2" s="7"/>
+      <c r="X2" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="Y2" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
-      <c r="AA2" s="10" t="s">
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AB2" s="10" t="s">
+      <c r="AC2" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="AD2" s="10" t="s">
         <v>320</v>
-      </c>
-      <c r="AD2" s="10" t="s">
-        <v>321</v>
       </c>
       <c r="AE2" s="10" t="s">
         <v>321</v>
       </c>
       <c r="AF2" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="AG2" s="10" t="s">
         <v>322</v>
-      </c>
-      <c r="AG2" s="10" t="s">
-        <v>323</v>
       </c>
       <c r="AH2" s="10" t="s">
         <v>323</v>
       </c>
       <c r="AI2" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="AJ2" s="10" t="s">
         <v>324</v>
-      </c>
-      <c r="AJ2" s="10" t="s">
-        <v>325</v>
       </c>
       <c r="AK2" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="AL2" s="7"/>
-    </row>
-    <row r="3" spans="1:38" ht="58">
-      <c r="A3" s="9" t="s">
+      <c r="AL2" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="AM2" s="7"/>
+    </row>
+    <row r="3" spans="1:39" ht="58">
+      <c r="A3" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="F3" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="H3" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="I3" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="J3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="K3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="L3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="M3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="N3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="O3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="P3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="Q3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="R3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="S3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="T3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="T3" s="9" t="s">
+      <c r="U3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="U3" s="9" t="s">
+      <c r="V3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="V3" s="9" t="s">
+      <c r="W3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="W3" s="9" t="s">
+      <c r="X3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="X3" s="7" t="s">
+      <c r="Y3" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="Y3" s="9" t="s">
+      <c r="Z3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="Z3" s="9" t="s">
+      <c r="AA3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AA3" s="10" t="s">
+      <c r="AB3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AB3" s="10" t="s">
+      <c r="AC3" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="AC3" s="10" t="s">
+      <c r="AD3" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="AD3" s="10" t="s">
+      <c r="AE3" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="AE3" s="10" t="s">
+      <c r="AF3" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="AF3" s="10" t="s">
+      <c r="AG3" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="AG3" s="10" t="s">
+      <c r="AH3" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="AH3" s="10" t="s">
+      <c r="AI3" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="AI3" s="10" t="s">
+      <c r="AJ3" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="AJ3" s="10" t="s">
+      <c r="AK3" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="AK3" s="10" t="s">
+      <c r="AL3" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="AL3" s="7" t="s">
+      <c r="AM3" s="7" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
-      <c r="A4" s="9">
+    <row r="4" spans="1:39">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9">
         <v>2</v>
       </c>
-      <c r="B4" s="10">
+      <c r="C4" s="10">
         <v>1</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="D4" s="20" t="s">
         <v>371</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="E4" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="20">
+      <c r="F4" s="20">
         <v>45307</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="17"/>
+      <c r="G4" s="7"/>
       <c r="H4" s="17"/>
-      <c r="I4" s="9"/>
+      <c r="I4" s="17"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
-      <c r="M4" s="9">
+      <c r="M4" s="9"/>
+      <c r="N4" s="9">
         <v>54321</v>
       </c>
-      <c r="N4" s="9">
+      <c r="O4" s="9">
         <v>12345</v>
       </c>
-      <c r="O4" s="10"/>
       <c r="P4" s="10"/>
-      <c r="Q4" s="9"/>
+      <c r="Q4" s="10"/>
       <c r="R4" s="9"/>
       <c r="S4" s="9"/>
       <c r="T4" s="9"/>
       <c r="U4" s="9"/>
       <c r="V4" s="9"/>
       <c r="W4" s="9"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="9" t="s">
+      <c r="X4" s="9"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="AA4" s="9" t="b">
+      <c r="AB4" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="AB4" s="10">
+      <c r="AC4" s="10">
         <v>2</v>
       </c>
-      <c r="AC4" s="10"/>
       <c r="AD4" s="10"/>
       <c r="AE4" s="10"/>
-      <c r="AF4" s="10" t="s">
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="AG4" s="10">
+      <c r="AH4" s="10">
         <v>-15</v>
       </c>
-      <c r="AH4" s="10">
+      <c r="AI4" s="10">
         <v>-10</v>
       </c>
-      <c r="AI4" s="10"/>
       <c r="AJ4" s="10"/>
       <c r="AK4" s="10"/>
-      <c r="AL4" s="7"/>
-    </row>
-    <row r="5" spans="1:38" ht="29">
-      <c r="A5" s="9">
+      <c r="AL4" s="10"/>
+      <c r="AM4" s="7"/>
+    </row>
+    <row r="5" spans="1:39" ht="29">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
       <c r="B5" s="9">
         <v>2</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="9">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="E5" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="20">
+      <c r="F5" s="20">
         <v>45307</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="17"/>
+      <c r="G5" s="7"/>
       <c r="H5" s="17"/>
-      <c r="I5" s="9"/>
+      <c r="I5" s="17"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
-      <c r="L5" s="9" t="s">
+      <c r="L5" s="9"/>
+      <c r="M5" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="M5" s="9"/>
       <c r="N5" s="9"/>
-      <c r="O5" s="10" t="s">
+      <c r="O5" s="9"/>
+      <c r="P5" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="P5" s="10" t="s">
+      <c r="Q5" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
       <c r="T5" s="9"/>
       <c r="U5" s="9"/>
       <c r="V5" s="9"/>
       <c r="W5" s="9"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="9" t="s">
+      <c r="X5" s="9"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="AA5" s="9" t="b">
+      <c r="AB5" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="AB5" s="10">
+      <c r="AC5" s="10">
         <v>3</v>
       </c>
-      <c r="AC5" s="10"/>
       <c r="AD5" s="10"/>
       <c r="AE5" s="10"/>
       <c r="AF5" s="10"/>
       <c r="AG5" s="10"/>
       <c r="AH5" s="10"/>
-      <c r="AI5" s="10" t="s">
+      <c r="AI5" s="10"/>
+      <c r="AJ5" s="10" t="s">
         <v>227</v>
-      </c>
-      <c r="AJ5" s="10">
-        <v>-10</v>
       </c>
       <c r="AK5" s="10">
         <v>-10</v>
       </c>
-      <c r="AL5" s="9"/>
-    </row>
-    <row r="6" spans="1:38">
-      <c r="A6" s="9">
+      <c r="AL5" s="10">
+        <v>-10</v>
+      </c>
+      <c r="AM5" s="9"/>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="9">
+      <c r="C6" s="9">
         <v>3</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="D6" s="20" t="s">
         <v>371</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="E6" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="20">
+      <c r="F6" s="20">
         <v>45307</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="17"/>
+      <c r="G6" s="7"/>
       <c r="H6" s="17"/>
-      <c r="I6" s="9"/>
+      <c r="I6" s="17"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
-      <c r="O6" s="10"/>
+      <c r="O6" s="9"/>
       <c r="P6" s="10"/>
-      <c r="Q6" s="9"/>
+      <c r="Q6" s="10"/>
       <c r="R6" s="9"/>
       <c r="S6" s="9"/>
       <c r="T6" s="9"/>
       <c r="U6" s="9"/>
       <c r="V6" s="9"/>
       <c r="W6" s="9"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9" t="s">
+      <c r="X6" s="9"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="AA6" s="9" t="b">
+      <c r="AB6" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="AB6" s="10">
+      <c r="AC6" s="10">
         <v>1</v>
       </c>
-      <c r="AC6" s="10" t="s">
+      <c r="AD6" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="AD6" s="10">
+      <c r="AE6" s="10">
         <v>-20</v>
       </c>
-      <c r="AE6" s="10">
+      <c r="AF6" s="10">
         <v>-19</v>
       </c>
-      <c r="AF6" s="10"/>
       <c r="AG6" s="10"/>
       <c r="AH6" s="10"/>
       <c r="AI6" s="10"/>
       <c r="AJ6" s="10"/>
       <c r="AK6" s="10"/>
-      <c r="AL6" s="9"/>
+      <c r="AL6" s="10"/>
+      <c r="AM6" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4:P6" xr:uid="{9332F3F5-7ECA-4202-848A-09707B7835F6}">
-      <formula1>INDIRECT(O4)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q4:Q6" xr:uid="{9332F3F5-7ECA-4202-848A-09707B7835F6}">
+      <formula1>INDIRECT(P4)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB4:AB6" xr:uid="{54C32FEB-0D11-410F-B65A-C7AFD2ADFE06}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC4:AC6" xr:uid="{54C32FEB-0D11-410F-B65A-C7AFD2ADFE06}">
       <formula1>"1,2,3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F6" xr:uid="{3EB9DACA-4C69-411C-B904-072E7D4E4BE8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G6" xr:uid="{3EB9DACA-4C69-411C-B904-072E7D4E4BE8}">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W4:W6 T4:T6 Q4:Q6 AA4:AA6" xr:uid="{3B309BE3-39D8-4FFF-810A-D9F4A00612A5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X4:X6 U4:U6 R4:R6 AB4:AB6" xr:uid="{3B309BE3-39D8-4FFF-810A-D9F4A00612A5}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D6" xr:uid="{F9F0591B-E526-46AD-9D81-6A04F9F88AD3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E6" xr:uid="{F9F0591B-E526-46AD-9D81-6A04F9F88AD3}">
       <formula1>"True,False"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3084,31 +3114,31 @@
           <x14:formula1>
             <xm:f>清單!$A$2:$A$36</xm:f>
           </x14:formula1>
-          <xm:sqref>Z4:Z6</xm:sqref>
+          <xm:sqref>AA4:AA6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F60E4304-FC05-4D63-AA09-6B40BBC10C3B}">
           <x14:formula1>
             <xm:f>清單!$S$2:$S$12</xm:f>
           </x14:formula1>
-          <xm:sqref>H4:H6</xm:sqref>
+          <xm:sqref>I4:I6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{31E67836-5CEF-4860-A5CA-7CD0C9E38118}">
           <x14:formula1>
             <xm:f>清單!$T$2:$T$12</xm:f>
           </x14:formula1>
-          <xm:sqref>G4:G6</xm:sqref>
+          <xm:sqref>H4:H6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CF1951D5-7401-4222-9646-0B944B16D676}">
           <x14:formula1>
             <xm:f>清單!$E$2:$E$34</xm:f>
           </x14:formula1>
-          <xm:sqref>AF4:AF6 AI4:AI6</xm:sqref>
+          <xm:sqref>AG4:AG6 AJ4:AJ6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{489F06A8-2879-4FC1-8DA3-3352B095A08C}">
           <x14:formula1>
             <xm:f>清單!$B$2:$B$23</xm:f>
           </x14:formula1>
-          <xm:sqref>AC4:AC6 O4:O6</xm:sqref>
+          <xm:sqref>AD4:AD6 P4:P6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
